--- a/src/test/resources/Data/Data.xlsx
+++ b/src/test/resources/Data/Data.xlsx
@@ -45,10 +45,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,8 +83,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,11 +367,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -374,22 +384,24 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>45189</v>
+      <c r="C2" s="2">
+        <f ca="1">DATE(RANDBETWEEN(2023,2030),RANDBETWEEN(1,12), RANDBETWEEN(1,31))</f>
+        <v>46055</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>